--- a/src/data/H_open.xlsx
+++ b/src/data/H_open.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -105,22 +105,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>任意R1-R3的break_times &gt;= 指定次数都必须把确认点放在最后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>连续穿破前两条阻力线时可以接近第三条阻力线时确认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加权移动平均涨幅来计算前N条阻力线是否可以确认</t>
+    <t>快速涨幅统计，单笔涨幅&gt;=0.2的总涨幅&gt;=1.2 || 30s移动平均涨幅 &gt;= 0.4 出现3次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意R1-R3的break_times &gt;= 指定次数都必须把确认点放在最后(默认确认点为最后一个阻力线)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -181,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,19 +189,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -294,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -471,33 +468,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="26" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="2"/>
+    <col min="10" max="10" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
@@ -629,38 +626,46 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="23.4" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="26.4" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.5" customHeight="1"/>
+    <row r="11" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/data/H_open.xlsx
+++ b/src/data/H_open.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>open_p</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,18 +45,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>R1_break_times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_p + (10-open_p) * 0.382</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_p + (10-open_p) * 0.618</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;= 5% &amp; &lt; 7%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -65,63 +53,257 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>R2_break_times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>R3_p</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>open_p + (10-open_p) * 0.892</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=3% &amp; &lt;= 5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;=11:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>open_p + (10-open_p) * 0.191</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R3_break_times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>R4_p</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>R4_break_times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续穿破前两条阻力线时可以接近第三条阻力线时确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速涨幅统计，单笔涨幅&gt;=0.2的总涨幅&gt;=1.2 || 30s移动平均涨幅 &gt;= 0.4 出现3次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意R1-R3的break_times &gt;= 指定次数都必须把确认点放在最后(默认确认点为最后一个阻力线)</t>
+    <t>R5_p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=14:50:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;= 3% &amp; &lt; 5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=-1.5% &amp; &lt; 3%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_p + (10 - open_p) * 0.191</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_p + (10 - open_p) * 0.382</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_p + (10 - open_p) * 0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_p + (10 - open_p) * 0.618</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_p + (10 - open_p) * 0.892</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_R_confirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2 (8.146)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2 (6.91)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3 (6.5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3 (4.25)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被反向击穿时必须以下一个未被击穿的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">正向突破作为确认点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连续穿破前两条阻力线时可以接近第三条阻力线时确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统计单笔涨幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以上的总涨幅进行排序</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破min_R_confirm之后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破min_R_confirm之前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;= 0.6% in 30s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;= 0.6 % in 30s or &gt;=1 in 1mins</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;= 0.2 % in 30s and &gt;=1 in 1mins</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +334,54 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +391,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -175,13 +413,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,13 +436,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,201 +733,266 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="22.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.8984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.8984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.8984375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.5" customHeight="1"/>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+    <row r="7" spans="1:8" s="7" customFormat="1">
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32.25" customHeight="1">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32.25" customHeight="1"/>
+    <row r="10" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.2" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.2" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.2" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.2" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.2" customHeight="1"/>
+    <row r="16" spans="1:8" ht="27" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="24.6" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="34.799999999999997" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
+  <mergeCells count="5">
+    <mergeCell ref="G16:H25"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/H_open.xlsx
+++ b/src/data/H_open.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,16 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>open_p</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;=7%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -45,10 +41,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;= 5% &amp; &lt; 7%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;=11:00:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -57,10 +49,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;=11:30:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>R4_p</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -69,82 +57,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>open_p + (10 - open_p) * 0.191</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_p + (10 - open_p) * 0.382</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_p + (10 - open_p) * 0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_p + (10 - open_p) * 0.618</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_p + (10 - open_p) * 0.892</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_R_confirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=-1% &amp; &lt; 2%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;= 2% &amp; &lt; 5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;=14:50:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;= 3% &amp; &lt; 5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=-1.5% &amp; &lt; 3%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_p + (10 - open_p) * 0.191</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_p + (10 - open_p) * 0.382</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_p + (10 - open_p) * 0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_p + (10 - open_p) * 0.618</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_p + (10 - open_p) * 0.892</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_R_confirm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2 (8.146)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>R2 (6.91)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>R3 (6.5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R3 (4.25)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
+    <t>R2 (5.056)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3 (4.5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_R_confirm_condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去12笔总涨幅 &gt;= 1 or 单笔&gt;=0.2 涨幅累计涨幅 &gt;= 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去15笔总涨幅 &gt;= 1.5 or 单笔&gt;=0.2 涨幅累计涨幅 &gt;= 1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去30笔总涨幅 &gt;= 2 or 单笔&gt;=0.2 涨幅累计涨幅 &gt;= 2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -220,90 +225,27 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>连续穿破前两条阻力线时可以接近第三条阻力线时确认</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>统计单笔涨幅</t>
+      <t xml:space="preserve">连续穿破前两条阻力线时可以接近第三条阻力线时确认
+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0.2</t>
+      <t>3. 最后2笔  [-1]&gt;0 , [-2]&gt;=0</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>以上的总涨幅进行排序</t>
-    </r>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破min_R_confirm之后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破min_R_confirm之前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;= 0.6% in 30s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;= 0.6 % in 30s or &gt;=1 in 1mins</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;= 0.2 % in 30s and &gt;=1 in 1mins</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,13 +302,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="2"/>
@@ -448,22 +383,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,266 +668,214 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="30" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.8984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.8984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.8984375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="2"/>
+    <col min="4" max="4" width="30.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1">
+    <row r="1" spans="1:7" s="6" customFormat="1">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1">
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32.25" customHeight="1">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32.25" customHeight="1"/>
+    <row r="9" spans="1:7" ht="19.149999999999999" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.15" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1">
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="32.25" customHeight="1">
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.15" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.15" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="32.25" customHeight="1"/>
-    <row r="10" spans="1:8" ht="19.2" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="28.2" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="28.2" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="28.2" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="28.2" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" ht="28.2" customHeight="1"/>
-    <row r="16" spans="1:8" ht="27" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.15" customHeight="1">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="27" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.6" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="34.9" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="6:7" ht="32.450000000000003" customHeight="1">
+      <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" ht="34.799999999999997" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3"/>
+    </row>
+    <row r="18" spans="6:7" ht="32.450000000000003" customHeight="1">
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G16:H25"/>
+  <mergeCells count="4">
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F9:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/H_open.xlsx
+++ b/src/data/H_open.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>open_p</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -237,6 +237,214 @@
         <scheme val="minor"/>
       </rPr>
       <t>3. 最后2笔  [-1]&gt;0 , [-2]&gt;=0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大单统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主力资金净流入</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万以上主买累计超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> || </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手以上累计超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分时50万以主买上累计超1000万 || 分时1000手以上累计超18000手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分时50万以主买上累计超1200万 || 分时1000手以上累计超20000手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&gt;800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&gt;500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -244,8 +452,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +523,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -384,21 +599,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -668,31 +883,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.8984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="30" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="2"/>
+    <col min="4" max="4" width="30.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.8984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.8984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.8984375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1">
@@ -787,7 +1002,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="32.25" customHeight="1"/>
-    <row r="9" spans="1:7" ht="19.149999999999999" customHeight="1">
+    <row r="9" spans="1:7" ht="19.2" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -795,80 +1010,109 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.15" customHeight="1">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.2" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="28.15" customHeight="1">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.2" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="28.15" customHeight="1">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.2" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.15" customHeight="1">
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.2" customHeight="1">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="27" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.6" customHeight="1">
-      <c r="B15" s="3"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="34.9" customHeight="1">
-      <c r="B16" s="3"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="6:7" ht="32.450000000000003" customHeight="1">
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="6:7" ht="32.450000000000003" customHeight="1">
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A14"/>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="33.6" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="34.950000000000003" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="32.4" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="32.4" customHeight="1">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/data/H_open.xlsx
+++ b/src/data/H_open.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>open_p</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,13 +149,229 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大单统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主力资金净流入</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万以上主买累计超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> || </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手以上累计超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分时50万以主买上累计超1000万 || 分时1000手以上累计超18000手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分时50万以主买上累计超1200万 || 分时1000手以上累计超20000手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&gt;800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&gt;500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -166,7 +382,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -176,7 +392,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -187,7 +403,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -197,7 +413,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -209,7 +425,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -219,44 +435,50 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">连续穿破前两条阻力线时可以接近第三条阻力线时确认
+        <color rgb="FF9C6500"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">主力资金净流入满足条件
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3. 最后2笔  [-1]&gt;0 , [-2]&gt;=0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>涨速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> || </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -267,184 +489,87 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>主力资金净流入</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>分时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万以上主买累计超</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> || </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>手以上累计超</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>手</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分时50万以主买上累计超1000万 || 分时1000手以上累计超18000手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分时50万以主买上累计超1200万 || 分时1000手以上累计超20000手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&gt;800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&gt;500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>满足条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>笔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  [-1]&gt;0 , [-2]&gt;=0</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -453,7 +578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,12 +637,20 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -525,7 +658,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -575,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,14 +731,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -671,7 +800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -706,7 +835,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -891,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+      <selection activeCell="D9" sqref="D9:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
@@ -910,7 +1039,7 @@
     <col min="9" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1">
+    <row r="1" spans="1:6" s="6" customFormat="1">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -920,8 +1049,11 @@
       <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="E1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -934,8 +1066,11 @@
       <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="E2" s="2">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -948,8 +1083,11 @@
       <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="E3" s="2">
+        <v>9.1359999999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -962,12 +1100,15 @@
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4" s="2">
+        <v>8.8119999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1">
+    <row r="6" spans="1:6" s="7" customFormat="1">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -984,7 +1125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" customHeight="1">
+    <row r="7" spans="1:6" ht="32.25" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1001,125 +1142,114 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" customHeight="1"/>
-    <row r="9" spans="1:7" ht="19.2" customHeight="1">
+    <row r="8" spans="1:6" ht="32.25" customHeight="1"/>
+    <row r="9" spans="1:6" ht="19.2" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.2" customHeight="1">
+      <c r="D9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.2" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="28.2" customHeight="1">
+    </row>
+    <row r="11" spans="1:6" ht="28.2" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" ht="28.2" customHeight="1">
+    </row>
+    <row r="12" spans="1:6" ht="28.2" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.2" customHeight="1">
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" ht="27" customHeight="1">
-      <c r="A14"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.2" customHeight="1">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="27" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="33.6" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="33.6" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="34.950000000000003" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="32.4" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="32.4" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="32.4" customHeight="1">
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="32.4" customHeight="1">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F9:G18"/>
+  <mergeCells count="1">
+    <mergeCell ref="D9:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/H_open.xlsx
+++ b/src/data/H_open.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>open_p</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,18 +134,6 @@
   </si>
   <si>
     <t>min_R_confirm_condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过去12笔总涨幅 &gt;= 1 or 单笔&gt;=0.2 涨幅累计涨幅 &gt;= 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过去15笔总涨幅 &gt;= 1.5 or 单笔&gt;=0.2 涨幅累计涨幅 &gt;= 1.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过去30笔总涨幅 &gt;= 2 or 单笔&gt;=0.2 涨幅累计涨幅 &gt;= 2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -570,6 +558,347 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  [-1]&gt;0 , [-2]&gt;=0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>笔总涨幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= 1 or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单笔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;=0.2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单笔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;=-0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>涨幅累计涨幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= 1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>笔总涨幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= 1.5 or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单笔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;=0.2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单笔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;=-0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>涨幅累计涨幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= 1.5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>笔总涨幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= 2 or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单笔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;=0.2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单笔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;=-0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>涨幅累计涨幅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= 2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30s,1mins,5mins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>速度</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -708,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,6 +1065,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1023,7 +1355,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
@@ -1050,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1148,9 +1480,11 @@
         <v>28</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D9" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -1158,8 +1492,8 @@
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>29</v>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
@@ -1169,8 +1503,8 @@
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>30</v>
+      <c r="B11" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -1180,8 +1514,8 @@
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
+      <c r="B12" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -1193,52 +1527,52 @@
     </row>
     <row r="14" spans="1:6" ht="27" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="33.6" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="32.4" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>

--- a/src/data/H_open.xlsx
+++ b/src/data/H_open.xlsx
@@ -563,14 +563,23 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+      <t>30s,1mins,5mins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>速度</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>过去</t>
     </r>
     <r>
@@ -581,18 +590,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>笔总涨幅</t>
+      <t>36s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总涨幅</t>
     </r>
     <r>
       <rPr>
@@ -671,14 +680,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>过去</t>
     </r>
     <r>
@@ -689,18 +690,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>笔总涨幅</t>
+      <t>45s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总涨幅</t>
     </r>
     <r>
       <rPr>
@@ -779,14 +780,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>过去</t>
     </r>
     <r>
@@ -797,18 +790,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>笔总涨幅</t>
+      <t>90s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总涨幅</t>
     </r>
     <r>
       <rPr>
@@ -882,23 +875,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> &gt;= 2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>30s,1mins,5mins</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>速度</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1063,11 +1039,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1355,7 +1331,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
@@ -1481,49 +1457,49 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="28.2" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>42</v>
+      <c r="B10" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="28.2" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>43</v>
+      <c r="B11" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="28.2" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>44</v>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="28.2" customHeight="1">
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="27" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -1535,8 +1511,8 @@
       <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="33.6" customHeight="1">
       <c r="A15" s="2" t="s">
@@ -1548,8 +1524,8 @@
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1">
       <c r="A16" s="2" t="s">
@@ -1561,8 +1537,8 @@
       <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="32.4" customHeight="1">
       <c r="A17" s="4" t="s">
@@ -1574,12 +1550,12 @@
       <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="32.4" customHeight="1">
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/data/H_open.xlsx
+++ b/src/data/H_open.xlsx
@@ -109,10 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;=-1% &amp; &lt; 2%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;= 2% &amp; &lt; 5%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,10 +122,6 @@
   </si>
   <si>
     <t>R2 (5.056)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R3 (4.5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -876,6 +868,14 @@
       </rPr>
       <t xml:space="preserve"> &gt;= 2</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=-1% &amp; &lt; 2%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4 (5.798)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
@@ -1358,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1372,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>9.4600000000000009</v>
@@ -1383,13 +1383,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2">
         <v>9.1359999999999992</v>
@@ -1400,13 +1400,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
         <v>8.8119999999999994</v>
@@ -1453,14 +1453,14 @@
     <row r="8" spans="1:6" ht="32.25" customHeight="1"/>
     <row r="9" spans="1:6" ht="19.2" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -1469,7 +1469,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="10"/>
@@ -1480,7 +1480,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10"/>
@@ -1491,7 +1491,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10"/>
@@ -1503,52 +1503,52 @@
     </row>
     <row r="14" spans="1:6" ht="27" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="33.6" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="32.4" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
